--- a/Project diaries/ProjectDiary_DavorJelic.xlsx
+++ b/Project diaries/ProjectDiary_DavorJelic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF1C913-D495-4876-B46C-E1D76E21536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC92302-F823-46F6-A60B-8628CC527E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{20C5DEC2-B10F-44F9-9ED1-5DB010ECB74B}"/>
+    <workbookView xWindow="3870" yWindow="705" windowWidth="15375" windowHeight="7875" xr2:uid="{20C5DEC2-B10F-44F9-9ED1-5DB010ECB74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Diary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="69">
   <si>
     <t>Upravljanje razvojem informacionih sistema</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Student: Davor Jelić IT11/2018</t>
+  </si>
+  <si>
+    <t>CS8602</t>
   </si>
 </sst>
 </file>
@@ -826,6 +829,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -852,12 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,8 +1179,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,52 +1199,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
@@ -1297,7 +1300,7 @@
       <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="24" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="16">
@@ -1306,7 +1309,7 @@
       <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="24" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="11" t="s">
@@ -1335,7 +1338,7 @@
       <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="25" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="17">
@@ -1344,7 +1347,7 @@
       <c r="H6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="25" t="s">
         <v>50</v>
       </c>
       <c r="J6" s="11" t="s">
@@ -1373,7 +1376,7 @@
       <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="25" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="17">
@@ -1382,7 +1385,7 @@
       <c r="H7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="25" t="s">
         <v>53</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -1411,7 +1414,7 @@
       <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="17">
@@ -1449,7 +1452,7 @@
       <c r="E9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="17">
@@ -1487,7 +1490,7 @@
       <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="17">
@@ -1525,7 +1528,7 @@
       <c r="E11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="17">
@@ -1563,7 +1566,7 @@
       <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="25" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="17">
@@ -1572,7 +1575,7 @@
       <c r="H12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="J12" s="11" t="s">
@@ -1601,7 +1604,7 @@
       <c r="E13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="25" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="17">
@@ -1610,7 +1613,7 @@
       <c r="H13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="25" t="s">
         <v>53</v>
       </c>
       <c r="J13" s="11" t="s">
@@ -1639,7 +1642,7 @@
       <c r="E14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="17">
@@ -1677,7 +1680,7 @@
       <c r="E15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="25" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="17">
@@ -1686,7 +1689,7 @@
       <c r="H15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="25" t="s">
         <v>58</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -1715,7 +1718,7 @@
       <c r="E16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="25" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="17">
@@ -1724,7 +1727,7 @@
       <c r="H16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="25" t="s">
         <v>58</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -1753,7 +1756,7 @@
       <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="17">
@@ -1791,7 +1794,7 @@
       <c r="E18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="17">
@@ -1829,7 +1832,7 @@
       <c r="E19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="17">
@@ -1867,7 +1870,7 @@
       <c r="E20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="17">
@@ -1905,7 +1908,7 @@
       <c r="E21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G21" s="17">
@@ -1943,7 +1946,7 @@
       <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G22" s="17">
@@ -1981,7 +1984,7 @@
       <c r="E23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="17">
@@ -2019,7 +2022,7 @@
       <c r="E24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="17">
@@ -2057,7 +2060,7 @@
       <c r="E25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="17">
@@ -2095,7 +2098,7 @@
       <c r="E26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="17">
@@ -2133,7 +2136,7 @@
       <c r="E27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="17">
@@ -2171,7 +2174,7 @@
       <c r="E28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G28" s="17">
@@ -2209,7 +2212,7 @@
       <c r="E29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="25" t="s">
         <v>55</v>
       </c>
       <c r="G29" s="17">
@@ -2247,7 +2250,7 @@
       <c r="E30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="25" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="17">
@@ -2256,7 +2259,7 @@
       <c r="H30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J30" s="11" t="s">
@@ -2285,7 +2288,7 @@
       <c r="E31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="25" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="17">
@@ -2294,7 +2297,7 @@
       <c r="H31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="25" t="s">
         <v>63</v>
       </c>
       <c r="J31" s="11" t="s">
@@ -2323,7 +2326,7 @@
       <c r="E32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="25" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="17">
@@ -2332,7 +2335,7 @@
       <c r="H32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="25" t="s">
         <v>66</v>
       </c>
       <c r="J32" s="11" t="s">
@@ -2345,453 +2348,1221 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="14"/>
+    <row r="33" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="17">
+        <v>9</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="17">
+        <v>2</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="17">
+        <v>2</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="17">
+        <v>2</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="17">
+        <v>5</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="17">
+        <v>3</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="17">
+        <v>3</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="17">
+        <v>3</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="17">
+        <v>3</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="17">
+        <v>3</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="17">
+        <v>3</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="17">
+        <v>3</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="17">
+        <v>3</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="17">
+        <v>3</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="17">
+        <v>3</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="17">
+        <v>3</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="17">
+        <v>3</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="17">
+        <v>3</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="17">
+        <v>3</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="17">
+        <v>3</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="17">
+        <v>3</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="17">
+        <v>3</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="17">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="17">
+        <v>3</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="17">
+        <v>3</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="17">
+        <v>3</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" s="16">
+        <v>7</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="17">
+        <v>5</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="17">
+        <v>5</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="17">
+        <v>5</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="17">
+        <v>2</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
@@ -15948,7 +16719,7 @@
           <x14:formula1>
             <xm:f>Codes!$G$26:$G$27</xm:f>
           </x14:formula1>
-          <xm:sqref>L5</xm:sqref>
+          <xm:sqref>L5 L60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
